--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>326959.82</t>
+          <t>12555.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>493803.21</t>
+          <t>10344.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>258167.78</t>
+          <t>18850.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>251506.30</t>
+          <t>10737.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>106461.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1100.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -943,7 +943,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>196091.00</t>
+          <t>20254.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3094,22 +3094,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>51.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>683065.84</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>44514.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>683065.84</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -3196,22 +3196,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>307460.00</t>
+          <t>17100.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>307460.00</t>
+          <t>17100.00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -3298,24 +3298,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>560.68</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4133.19</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>3.00</t>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4133.19</t>
+          <t>560.68</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -3400,22 +3400,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>43432.97</t>
+          <t>2968.95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>737.00</t>
+          <t>54.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>43432.97</t>
+          <t>2968.95</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -3502,22 +3502,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>197.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -3557,7 +3557,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>197.81</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -3604,22 +3604,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>27.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>244873.82</t>
+          <t>12555.72</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>328.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8539.00</t>
+          <t>398.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>244873.82</t>
+          <t>12555.72</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -3706,22 +3706,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>210.65</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>210.65</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3808,22 +3808,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>78.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>79470.82</t>
+          <t>16058.55</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>125.00</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>346.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>79470.82</t>
+          <t>16058.55</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3910,62 +3910,62 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>35.67</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>112.00</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>0.66</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>35.67</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>76053.00</t>
+          <t>3244.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>76053.00</t>
+          <t>3244.00</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4114,22 +4114,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>184.00</t>
+          <t>21.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1438933.77</t>
+          <t>52489.37</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>607.00</t>
+          <t>157.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>54363.00</t>
+          <t>517.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1438933.77</t>
+          <t>52489.37</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -4267,10 +4267,10 @@
         <v>1142073</v>
       </c>
       <c r="F2" t="n">
-        <v>683065.84</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>511.03</v>
@@ -4296,10 +4296,10 @@
         <v>320700</v>
       </c>
       <c r="F3" t="n">
-        <v>307460</v>
+        <v>17100</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>1800</v>
@@ -4329,10 +4329,10 @@
         <v>2377</v>
       </c>
       <c r="F4" t="n">
-        <v>1791.44</v>
+        <v>430.21</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>123.01</v>
@@ -4362,10 +4362,10 @@
         <v>13415</v>
       </c>
       <c r="F5" t="n">
-        <v>6862.1</v>
+        <v>2894.65</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n">
         <v>5271.56</v>
@@ -4395,10 +4395,10 @@
         <v>98</v>
       </c>
       <c r="F6" t="n">
-        <v>97.81999999999999</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>97.81999999999999</v>
@@ -4428,10 +4428,10 @@
         <v>362950</v>
       </c>
       <c r="F7" t="n">
-        <v>171002.13</v>
+        <v>10007.68</v>
       </c>
       <c r="G7" t="n">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="H7" t="n">
         <v>68270.86</v>
@@ -4461,10 +4461,10 @@
         <v>660</v>
       </c>
       <c r="F8" t="n">
-        <v>142.78</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>6.3</v>
@@ -4494,10 +4494,10 @@
         <v>10600</v>
       </c>
       <c r="F9" t="n">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>8500</v>
@@ -4527,10 +4527,10 @@
         <v>5600</v>
       </c>
       <c r="F10" t="n">
-        <v>1607.56</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>1503.41</v>
@@ -4560,10 +4560,10 @@
         <v>12000</v>
       </c>
       <c r="F11" t="n">
-        <v>9600</v>
+        <v>8600</v>
       </c>
       <c r="G11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
         <v>9600</v>
@@ -4593,10 +4593,10 @@
         <v>22000</v>
       </c>
       <c r="F12" t="n">
-        <v>22953.93</v>
+        <v>2953.93</v>
       </c>
       <c r="G12" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>19959.88</v>
@@ -4626,10 +4626,10 @@
         <v>45800</v>
       </c>
       <c r="F13" t="n">
-        <v>27716.38</v>
+        <v>3766.85</v>
       </c>
       <c r="G13" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="H13" t="n">
         <v>24987.13</v>
@@ -4659,10 +4659,10 @@
         <v>4500</v>
       </c>
       <c r="F14" t="n">
-        <v>4590</v>
+        <v>737.78</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>3000</v>
@@ -4692,7 +4692,7 @@
         <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>34.86</v>
+        <v>0.65</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -4754,7 +4754,7 @@
         <v>36000</v>
       </c>
       <c r="F17" t="n">
-        <v>76053</v>
+        <v>3244</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -4787,10 +4787,10 @@
         <v>1978836</v>
       </c>
       <c r="F18" t="n">
-        <v>1322478.65</v>
+        <v>49736.56</v>
       </c>
       <c r="G18" t="n">
-        <v>487</v>
+        <v>137</v>
       </c>
       <c r="H18" t="n">
         <v>143631.66</v>
@@ -4926,16 +4926,16 @@
         <v>22.57</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>168.04</v>
+        <v>118.04</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4994,16 +4994,16 @@
         <v>5.74</v>
       </c>
       <c r="G5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>7653</v>
+        <v>6953</v>
       </c>
       <c r="I5" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -5028,16 +5028,16 @@
         <v>5.62</v>
       </c>
       <c r="G6" t="n">
-        <v>798</v>
+        <v>95</v>
       </c>
       <c r="H6" t="n">
-        <v>201001</v>
+        <v>21084</v>
       </c>
       <c r="I6" t="n">
-        <v>857</v>
+        <v>98</v>
       </c>
       <c r="J6" t="n">
-        <v>765</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -5062,16 +5062,16 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1524.95</v>
+        <v>38.12</v>
       </c>
       <c r="I7" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5096,16 +5096,16 @@
         <v>6.27</v>
       </c>
       <c r="G8" t="n">
-        <v>902</v>
+        <v>114</v>
       </c>
       <c r="H8" t="n">
-        <v>44910.6</v>
+        <v>5384.2</v>
       </c>
       <c r="I8" t="n">
-        <v>902</v>
+        <v>114</v>
       </c>
       <c r="J8" t="n">
-        <v>899</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -5130,16 +5130,16 @@
         <v>6.03</v>
       </c>
       <c r="G9" t="n">
-        <v>37419</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>43538.92</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43722</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>37419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5164,16 +5164,16 @@
         <v>19.69</v>
       </c>
       <c r="G10" t="n">
-        <v>3815</v>
+        <v>1768</v>
       </c>
       <c r="H10" t="n">
-        <v>22481.23</v>
+        <v>8982.290000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>7454</v>
+        <v>2979</v>
       </c>
       <c r="J10" t="n">
-        <v>3815</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="11">
@@ -5198,16 +5198,16 @@
         <v>9.9</v>
       </c>
       <c r="G11" t="n">
-        <v>304</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
-        <v>23588.75</v>
+        <v>1659.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1278</v>
+        <v>91</v>
       </c>
       <c r="J11" t="n">
-        <v>151</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -5232,16 +5232,16 @@
         <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>2463.5</v>
+        <v>337</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -5266,16 +5266,16 @@
         <v>18.55</v>
       </c>
       <c r="G13" t="n">
-        <v>7271</v>
+        <v>1120</v>
       </c>
       <c r="H13" t="n">
-        <v>149658</v>
+        <v>22305.7</v>
       </c>
       <c r="I13" t="n">
-        <v>9560</v>
+        <v>1293</v>
       </c>
       <c r="J13" t="n">
-        <v>7177</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="14">
@@ -5300,16 +5300,16 @@
         <v>6.5</v>
       </c>
       <c r="G14" t="n">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="H14" t="n">
-        <v>17759.3</v>
+        <v>9384.299999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>529</v>
+        <v>275</v>
       </c>
       <c r="J14" t="n">
-        <v>301</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15">
@@ -5334,16 +5334,16 @@
         <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>2149</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5368,16 +5368,16 @@
         <v>10.53</v>
       </c>
       <c r="G16" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>5803</v>
+        <v>285</v>
       </c>
       <c r="I16" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -5470,16 +5470,16 @@
         <v>183.42</v>
       </c>
       <c r="G19" t="n">
-        <v>51212</v>
+        <v>3453</v>
       </c>
       <c r="H19" t="n">
-        <v>525865.11</v>
+        <v>79697.17</v>
       </c>
       <c r="I19" t="n">
-        <v>64734</v>
+        <v>5009</v>
       </c>
       <c r="J19" t="n">
-        <v>50929</v>
+        <v>2901</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5551,48 +5551,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>中钢</t>
+          <t>上海中振</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8163.91</v>
+        <v>9500</v>
       </c>
       <c r="C2" t="n">
-        <v>-48229.65</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-2528.09</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3616.7</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47566.16</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6486.02</v>
+        <v>806.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>华潍租赁</t>
+          <t>上海电气研砼</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.19</v>
+        <v>1607.56</v>
       </c>
       <c r="C3" t="n">
-        <v>-40.72</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.53</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12.41</v>
+        <v>136.53</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5613,60 +5613,60 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>壹链盟</t>
+          <t>中钢</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.57</v>
+        <v>6411.81</v>
       </c>
       <c r="C4" t="n">
-        <v>-173.67</v>
+        <v>-3524.35</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.06</v>
+        <v>-3524.35</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3529.63</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G4" t="n">
-        <v>210.65</v>
+        <v>3529.63</v>
       </c>
       <c r="H4" t="n">
-        <v>81.98999999999999</v>
+        <v>510.24</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大展</t>
+          <t>云度汽车</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12983.92</v>
+        <v>155.87</v>
       </c>
       <c r="C5" t="n">
-        <v>-113598.66</v>
+        <v>-148.26</v>
       </c>
       <c r="D5" t="n">
-        <v>-28681.92</v>
+        <v>-148.26</v>
       </c>
       <c r="E5" t="n">
-        <v>1938.87</v>
+        <v>38.12</v>
       </c>
       <c r="F5" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>73871.69</v>
+        <v>38.12</v>
       </c>
       <c r="H5" t="n">
-        <v>19074.73</v>
+        <v>17.4</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5675,153 +5675,153 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>平安普惠</t>
+          <t>壹链盟</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82797.75</v>
+        <v>37.61</v>
       </c>
       <c r="C6" t="n">
-        <v>-52719.79</v>
+        <v>-21</v>
       </c>
       <c r="D6" t="n">
-        <v>-3559.25</v>
+        <v>-21</v>
       </c>
       <c r="E6" t="n">
-        <v>4596</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>45300.2</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>81333.99000000001</v>
+        <v>3.43</v>
       </c>
       <c r="I6" t="n">
-        <v>91</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>牧原股份</t>
+          <t>平安普惠</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19806.29</v>
+        <v>74341.41</v>
       </c>
       <c r="C7" t="n">
-        <v>-25926.13</v>
+        <v>-4756.27</v>
       </c>
       <c r="D7" t="n">
-        <v>-6119.84</v>
+        <v>-4756.27</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>5464.2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>5464.2</v>
       </c>
       <c r="H7" t="n">
-        <v>4841.93</v>
+        <v>6353.92</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>磁金融</t>
+          <t>恒洁卫浴</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20371.39</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>-35208.28</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-2647.2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2162.4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>29391.75</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>17891.07</v>
+        <v>8.31</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>联创光电</t>
+          <t>房抵快贷</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17983.44</v>
+        <v>7653</v>
       </c>
       <c r="C9" t="n">
-        <v>-17983.44</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2994.05</v>
+        <v>6953</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>22953.93</v>
+        <v>6953</v>
       </c>
       <c r="H9" t="n">
-        <v>20471.83</v>
+        <v>238.49</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>远东</t>
+          <t>无锡红豆</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17323.36</v>
+        <v>9600</v>
       </c>
       <c r="C10" t="n">
-        <v>-17351.22</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-27.85</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2729.25</v>
+        <v>8600</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>27716.38</v>
+        <v>8600</v>
       </c>
       <c r="H10" t="n">
-        <v>22427.43</v>
+        <v>349.86</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -5830,94 +5830,218 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>钰翔</t>
+          <t>磁金融</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>260918.1</v>
+        <v>15039.66</v>
       </c>
       <c r="C11" t="n">
-        <v>-349068.25</v>
+        <v>-2099.92</v>
       </c>
       <c r="D11" t="n">
-        <v>-78181.91</v>
+        <v>-2099.92</v>
       </c>
       <c r="E11" t="n">
-        <v>8507.26</v>
+        <v>1944.7</v>
       </c>
       <c r="F11" t="n">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="G11" t="n">
-        <v>171002.13</v>
+        <v>1944.7</v>
       </c>
       <c r="H11" t="n">
-        <v>240432.92</v>
+        <v>1264.83</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>龙元建设</t>
+          <t>联创光电</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12521.21</v>
+        <v>19959.88</v>
       </c>
       <c r="C12" t="n">
-        <v>-18026.44</v>
+        <v>-2994.05</v>
       </c>
       <c r="D12" t="n">
-        <v>-2002.28</v>
+        <v>-2994.05</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2953.93</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>3502.96</v>
+        <v>2953.93</v>
       </c>
       <c r="H12" t="n">
-        <v>5985.55</v>
+        <v>1688.89</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>远东</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>24987.13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-2729.25</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-2729.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3766.85</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3766.85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2084.97</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>钰翔</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>152526.63</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13295.42</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-13295.42</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10007.68</v>
+      </c>
+      <c r="F14" t="n">
+        <v>277</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10007.68</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12923.78</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>银江</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>737.78</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>737.78</v>
+      </c>
+      <c r="H15" t="n">
+        <v>221.87</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>锱云</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2463.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>337</v>
+      </c>
+      <c r="F16" t="n">
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>337</v>
+      </c>
+      <c r="H16" t="n">
+        <v>198.02</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>452903.1300000001</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-678326.25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-123755.93</v>
-      </c>
-      <c r="E13" t="n">
-        <v>26544.53</v>
-      </c>
-      <c r="F13" t="n">
-        <v>533</v>
-      </c>
-      <c r="G13" t="n">
-        <v>421515.85</v>
-      </c>
-      <c r="H13" t="n">
-        <v>419039.8700000001</v>
-      </c>
-      <c r="I13" t="n">
-        <v>118</v>
+      <c r="B17" t="n">
+        <v>327381.88</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-29568.52</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-29568.52</v>
+      </c>
+      <c r="E17" t="n">
+        <v>44332.89</v>
+      </c>
+      <c r="F17" t="n">
+        <v>642</v>
+      </c>
+      <c r="G17" t="n">
+        <v>44332.89</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26807.39</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-921</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>273902.03</t>
+          <t>152624.45</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>11145.17</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>43470.71</t>
+          <t>63578.19</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12521.21</t>
+          <t>3000.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>19839.48</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>103169.15</t>
+          <t>89381.07</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>34024.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>13000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35117.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1498,12 +1498,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32968.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88010.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>837.61</t>
+          <t>37.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>288139.56</t>
+          <t>11107.56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36933.50</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>14311.81</t>
+          <t>6411.81</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>24.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1900,12 +1900,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>31037.82</t>
+          <t>97.82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1967,12 +1967,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>96069.88</t>
+          <t>29559.88</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>34.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2034,12 +2034,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>38525.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>69523.34</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2168,12 +2168,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>124595.00</t>
+          <t>3000.00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2235,12 +2235,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30650.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>62087.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2838,12 +2838,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1000.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82141.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>263145.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>75143.50</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>171120.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84087.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>135665.00</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82140.00</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>58523.34</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8650.00</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1000.00</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>32968.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48000.00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>800.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>53897.00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>18800.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>7900.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15940.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>39500.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>39523.34</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>9500.00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8650.00</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5638,7 +5638,7 @@
         <v>510.24</v>
       </c>
       <c r="I4" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5700,7 +5700,7 @@
         <v>3.43</v>
       </c>
       <c r="I6" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5731,7 +5731,7 @@
         <v>6353.92</v>
       </c>
       <c r="I7" t="n">
-        <v>-677</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -5793,7 +5793,7 @@
         <v>238.49</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -5824,7 +5824,7 @@
         <v>349.86</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -5855,7 +5855,7 @@
         <v>1264.83</v>
       </c>
       <c r="I11" t="n">
-        <v>-182</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -5886,7 +5886,7 @@
         <v>1688.89</v>
       </c>
       <c r="I12" t="n">
-        <v>-8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -5917,7 +5917,7 @@
         <v>2084.97</v>
       </c>
       <c r="I13" t="n">
-        <v>-19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -5948,7 +5948,7 @@
         <v>12923.78</v>
       </c>
       <c r="I14" t="n">
-        <v>-24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -6010,7 +6010,7 @@
         <v>198.02</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -6041,7 +6041,7 @@
         <v>26807.39</v>
       </c>
       <c r="I17" t="n">
-        <v>-921</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,83 @@
         </is>
       </c>
       <c r="O8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>数字普惠部</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>95076.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6240.00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>18.66</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>22305.70</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>21.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>58.00</t>
+          <t>42.00</t>
         </is>
       </c>
     </row>
@@ -3338,12 +3338,12 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>11.00</t>
         </is>
       </c>
     </row>
@@ -3440,12 +3440,12 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -3542,12 +3542,12 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>63.00</t>
+          <t>24.00</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>64.00</t>
+          <t>24.00</t>
         </is>
       </c>
     </row>
@@ -3644,12 +3644,12 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -3746,12 +3746,12 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>267.00</t>
+          <t>117.00</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>328.00</t>
+          <t>148.00</t>
         </is>
       </c>
     </row>
@@ -3848,12 +3848,12 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -3950,12 +3950,12 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>122.00</t>
+          <t>66.00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>125.00</t>
+          <t>66.00</t>
         </is>
       </c>
     </row>
@@ -4256,12 +4256,12 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>514.00</t>
+          <t>250.00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>607.00</t>
+          <t>297.00</t>
         </is>
       </c>
     </row>

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,6 +1126,83 @@
         </is>
       </c>
       <c r="O9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>普惠业务二部</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>280.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>280.00</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
@@ -3037,7 +3114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3146,6 +3223,11 @@
           <t>三个月发生数</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>户均</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -3244,6 +3326,11 @@
           <t>42.00</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>8289.72</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3346,6 +3433,11 @@
           <t>11.00</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>10936.67</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3448,6 +3540,11 @@
           <t>3.00</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>380.09</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3550,6 +3647,11 @@
           <t>24.00</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>263.58</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3652,6 +3754,11 @@
           <t>0.00</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3754,6 +3861,11 @@
           <t>148.00</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>591.19</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3856,6 +3968,11 @@
           <t>0.00</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>18.81</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3958,6 +4075,11 @@
           <t>66.00</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>607.56</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4060,6 +4182,11 @@
           <t>2.00</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4162,6 +4289,11 @@
           <t>1.00</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>32968.00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4262,6 +4394,11 @@
       <c r="T12" t="inlineStr">
         <is>
           <t>297.00</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>54153.77</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4330,6 +4467,16 @@
           <t>普惠户数</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>户均</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>平均利率</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -4355,6 +4502,12 @@
       <c r="I2" t="n">
         <v>1</v>
       </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4384,6 +4537,12 @@
       <c r="I3" t="n">
         <v>2</v>
       </c>
+      <c r="J3" t="n">
+        <v>10936.67</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4417,6 +4576,12 @@
       <c r="I4" t="n">
         <v>1</v>
       </c>
+      <c r="J4" t="n">
+        <v>380.09</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4450,6 +4615,12 @@
       <c r="I5" t="n">
         <v>20</v>
       </c>
+      <c r="J5" t="n">
+        <v>263.58</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4483,6 +4654,12 @@
       <c r="I6" t="n">
         <v>1</v>
       </c>
+      <c r="J6" t="n">
+        <v>97.81999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -4516,6 +4693,12 @@
       <c r="I7" t="n">
         <v>159</v>
       </c>
+      <c r="J7" t="n">
+        <v>591.1900000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4549,6 +4732,12 @@
       <c r="I8" t="n">
         <v>1</v>
       </c>
+      <c r="J8" t="n">
+        <v>18.81</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4582,6 +4771,12 @@
       <c r="I9" t="n">
         <v>11</v>
       </c>
+      <c r="J9" t="n">
+        <v>791.67</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.95</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -4615,6 +4810,12 @@
       <c r="I10" t="n">
         <v>9</v>
       </c>
+      <c r="J10" t="n">
+        <v>160.76</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -4648,6 +4849,12 @@
       <c r="I11" t="n">
         <v>12</v>
       </c>
+      <c r="J11" t="n">
+        <v>800</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4681,6 +4888,12 @@
       <c r="I12" t="n">
         <v>22</v>
       </c>
+      <c r="J12" t="n">
+        <v>907.27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4714,6 +4927,12 @@
       <c r="I13" t="n">
         <v>51</v>
       </c>
+      <c r="J13" t="n">
+        <v>489.94</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4747,6 +4966,12 @@
       <c r="I14" t="n">
         <v>6</v>
       </c>
+      <c r="J14" t="n">
+        <v>500</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4780,6 +5005,12 @@
       <c r="I15" t="n">
         <v>1</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K15" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4812,6 +5043,12 @@
       </c>
       <c r="I16" t="n">
         <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K16" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -4842,6 +5079,12 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
+      <c r="J17" t="n">
+        <v>32968</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4874,6 +5117,12 @@
       </c>
       <c r="I18" t="n">
         <v>298</v>
+      </c>
+      <c r="J18" t="n">
+        <v>48906.46</v>
+      </c>
+      <c r="K18" t="n">
+        <v>123.16</v>
       </c>
     </row>
   </sheetData>
@@ -4887,7 +5136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4946,617 +5195,536 @@
           <t>当年新开户数</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>个人户均</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>逾期金额</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>不良金额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>出行贷-新生经营</t>
+          <t>房抵贷</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
-        <v>3165.82</v>
+        <v>7653</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>3165.82</v>
+        <v>7653</v>
       </c>
       <c r="F2" t="n">
-        <v>23.72</v>
+        <v>5.74</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>3165.82</v>
+        <v>6953</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="K2" t="n">
+        <v>173.93</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>出行贷-狮桥车主经营</t>
+          <t>房抵贷-公司部</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>740</v>
       </c>
       <c r="C3" t="n">
-        <v>166.33</v>
+        <v>181424</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>772</v>
       </c>
       <c r="E3" t="n">
-        <v>168.04</v>
+        <v>181646</v>
       </c>
       <c r="F3" t="n">
-        <v>22.57</v>
+        <v>5.62</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
-        <v>118.04</v>
+        <v>21084</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="K3" t="n">
+        <v>245.17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1525</v>
+      </c>
+      <c r="M3" t="n">
+        <v>560</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>创业经营贷</t>
+          <t>瑞e惠-云度</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>2158.72</v>
+        <v>155.87</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>2855</v>
+        <v>219.71</v>
       </c>
       <c r="F4" t="n">
-        <v>8.300000000000001</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>38.12</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>房抵贷</t>
+          <t>瑞e惠-平安普惠</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>1982</v>
       </c>
       <c r="C5" t="n">
-        <v>7653</v>
+        <v>74172.06</v>
       </c>
       <c r="D5" t="n">
-        <v>45</v>
+        <v>1982</v>
       </c>
       <c r="E5" t="n">
-        <v>7653</v>
+        <v>94942.60000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>5.74</v>
+        <v>6.27</v>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="H5" t="n">
-        <v>6953</v>
+        <v>5384.2</v>
       </c>
       <c r="I5" t="n">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="J5" t="n">
-        <v>42</v>
+        <v>114</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.42</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1497.23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>房抵贷-公司部</t>
+          <t>瑞e惠-磁金融</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740</v>
+        <v>172</v>
       </c>
       <c r="C6" t="n">
-        <v>181424</v>
+        <v>9236.66</v>
       </c>
       <c r="D6" t="n">
-        <v>772</v>
+        <v>450</v>
       </c>
       <c r="E6" t="n">
-        <v>181646</v>
+        <v>9236.66</v>
       </c>
       <c r="F6" t="n">
-        <v>5.62</v>
+        <v>9.9</v>
       </c>
       <c r="G6" t="n">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>21084</v>
+        <v>1659.7</v>
       </c>
       <c r="I6" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J6" t="n">
-        <v>77</v>
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>53.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>瑞e惠-云度</t>
+          <t>瑞e惠-锱云科技</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>155.87</v>
+        <v>2463.5</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>219.71</v>
+        <v>2463.5</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>38.12</v>
+        <v>337</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>66.58</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>瑞e惠-平安普惠</t>
+          <t>瑞商贷</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1982</v>
+        <v>6240</v>
       </c>
       <c r="C8" t="n">
-        <v>74172.06</v>
+        <v>95076.05</v>
       </c>
       <c r="D8" t="n">
-        <v>1982</v>
+        <v>7653</v>
       </c>
       <c r="E8" t="n">
-        <v>94942.60000000001</v>
+        <v>122570.8</v>
       </c>
       <c r="F8" t="n">
-        <v>6.27</v>
+        <v>18.55</v>
       </c>
       <c r="G8" t="n">
-        <v>114</v>
+        <v>1120</v>
       </c>
       <c r="H8" t="n">
-        <v>5384.2</v>
+        <v>22305.7</v>
       </c>
       <c r="I8" t="n">
-        <v>114</v>
+        <v>1293</v>
       </c>
       <c r="J8" t="n">
-        <v>114</v>
+        <v>1009</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4992.67</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1822.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>瑞e惠-拍拍贷</t>
+          <t>瑞商贷-怡亚通</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15797</v>
+        <v>177</v>
       </c>
       <c r="C9" t="n">
-        <v>10240.26</v>
+        <v>9843.23</v>
       </c>
       <c r="D9" t="n">
-        <v>17226</v>
+        <v>297</v>
       </c>
       <c r="E9" t="n">
-        <v>19654.45</v>
+        <v>10048.9</v>
       </c>
       <c r="F9" t="n">
-        <v>6.03</v>
+        <v>6.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>9384.299999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="J9" t="n">
+        <v>135</v>
+      </c>
+      <c r="K9" t="n">
+        <v>55.61</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>瑞e惠-携程生意人贷</t>
+          <t>瑞商贷-重庆金微</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3334</v>
+        <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>16630.6</v>
+        <v>979.9</v>
       </c>
       <c r="D10" t="n">
-        <v>5810</v>
+        <v>84</v>
       </c>
       <c r="E10" t="n">
-        <v>17699.19</v>
+        <v>1799</v>
       </c>
       <c r="F10" t="n">
-        <v>19.69</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>1768</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8982.290000000001</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2979</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1405</v>
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>瑞e惠-磁金融</t>
+          <t>磁金融非循环</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="C11" t="n">
-        <v>9236.66</v>
+        <v>5803</v>
       </c>
       <c r="D11" t="n">
-        <v>450</v>
+        <v>86</v>
       </c>
       <c r="E11" t="n">
-        <v>9236.66</v>
+        <v>5803</v>
       </c>
       <c r="F11" t="n">
-        <v>9.9</v>
+        <v>10.53</v>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1659.7</v>
+        <v>285</v>
       </c>
       <c r="I11" t="n">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>67.48</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>瑞e惠-锱云科技</t>
+          <t>跨境电商-新连连</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2463.5</v>
+        <v>17.21</v>
       </c>
       <c r="D12" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2463.5</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>17.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>瑞商贷</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6240</v>
+        <v>9570</v>
       </c>
       <c r="C13" t="n">
-        <v>95076.05</v>
+        <v>386824.48</v>
       </c>
       <c r="D13" t="n">
-        <v>7653</v>
+        <v>11417</v>
       </c>
       <c r="E13" t="n">
-        <v>122570.8</v>
+        <v>436413.17</v>
       </c>
       <c r="F13" t="n">
-        <v>18.55</v>
+        <v>94.11</v>
       </c>
       <c r="G13" t="n">
-        <v>1120</v>
+        <v>1581</v>
       </c>
       <c r="H13" t="n">
-        <v>22305.7</v>
+        <v>67431.02</v>
       </c>
       <c r="I13" t="n">
-        <v>1293</v>
+        <v>1926</v>
       </c>
       <c r="J13" t="n">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>瑞商贷-怡亚通</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>177</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9843.23</v>
-      </c>
-      <c r="D14" t="n">
-        <v>297</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10048.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>155</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9384.299999999999</v>
-      </c>
-      <c r="I14" t="n">
-        <v>275</v>
-      </c>
-      <c r="J14" t="n">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>瑞商贷-重庆金微</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>82</v>
-      </c>
-      <c r="C15" t="n">
-        <v>979.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>84</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1799</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>磁金融非循环</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>86</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5803</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5803</v>
-      </c>
-      <c r="F16" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>285</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>跨境电商-新连连</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30</v>
-      </c>
-      <c r="F17" t="n">
-        <v>11</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>车商贷</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>137.64</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>195.77</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>28813</v>
-      </c>
-      <c r="C19" t="n">
-        <v>419323.85</v>
-      </c>
-      <c r="D19" t="n">
-        <v>34565</v>
-      </c>
-      <c r="E19" t="n">
-        <v>480151.44</v>
-      </c>
-      <c r="F19" t="n">
-        <v>183.42</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3453</v>
-      </c>
-      <c r="H19" t="n">
-        <v>79697.17</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5009</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2901</v>
+        <v>1392</v>
+      </c>
+      <c r="K13" t="n">
+        <v>761.6100000000002</v>
+      </c>
+      <c r="L13" t="n">
+        <v>8048.889999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2399.85</v>
       </c>
     </row>
   </sheetData>

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -620,22 +620,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3530.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>550.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -697,22 +697,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17.21</t>
+          <t>2636.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>47.00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>375.12</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -928,22 +928,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>176514.00</t>
+          <t>265725.72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>721.00</t>
+          <t>2961.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20254.00</t>
+          <t>27582.90</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1082,22 +1082,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>95076.05</t>
+          <t>105899.18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6240.00</t>
+          <t>6499.00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>17.43</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>22305.70</t>
+          <t>31690.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">

--- a/excel/data202401.xlsx
+++ b/excel/data202401.xlsx
@@ -523,12 +523,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>234667.63</t>
+          <t>152526.63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>273.00</t>
+          <t>258.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>409955.17</t>
+          <t>141173.17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>47.00</t>
+          <t>32.00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -677,12 +677,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>218340.14</t>
+          <t>143196.64</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>122.00</t>
+          <t>115.00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>232643.34</t>
+          <t>60898.34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>92737.00</t>
+          <t>8500.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -4413,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4479,168 +4479,180 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>产能预售业务</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>上海中钢供应链有限公司</t>
+        </is>
+      </c>
       <c r="C2" t="n">
-        <v>731786.84</v>
+        <v>1140.26</v>
       </c>
       <c r="D2" t="n">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1142073</v>
+        <v>2377</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>430.21</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>511.03</v>
+        <v>123.01</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>380.09</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>一般贷款</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>现货业务</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>上海中钢供应链有限公司</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>196860</v>
+        <v>5271.56</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>320700</v>
+        <v>13415</v>
       </c>
       <c r="F3" t="n">
-        <v>17100</v>
+        <v>2894.65</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>1800</v>
+        <v>5271.56</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>10936.67</v>
+        <v>263.58</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>产能预售业务</t>
+          <t>瑞e惠B端</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>上海中钢供应链有限公司</t>
+          <t>恒洁卫浴集团有限公司</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1140.26</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2377</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
-        <v>430.21</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>123.01</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>380.09</v>
+        <v>97.81999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>现货业务</t>
+          <t>瑞e订</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海中钢供应链有限公司</t>
+          <t>钰翔环保供应链管理（上海）有限公司</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5271.56</v>
+        <v>152526.63</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="E5" t="n">
-        <v>13415</v>
+        <v>362950</v>
       </c>
       <c r="F5" t="n">
-        <v>2894.65</v>
+        <v>10007.68</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="H5" t="n">
-        <v>5271.56</v>
+        <v>68270.86</v>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="J5" t="n">
-        <v>263.58</v>
+        <v>591.1900000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>瑞e惠B端</t>
+          <t>瑞e险</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>恒洁卫浴集团有限公司</t>
+          <t>熠瑞合（上海）供应链管理有限公司</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>97.81999999999999</v>
+        <v>37.61</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>660</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4649,76 +4661,76 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.81999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>97.81999999999999</v>
+        <v>18.81</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>瑞e订</t>
+          <t>线上供应链-瑞e保</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>钰翔环保供应链管理（上海）有限公司</t>
+          <t>上海中振交通装备有限公司</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>152526.63</v>
+        <v>9500</v>
       </c>
       <c r="D7" t="n">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>362950</v>
+        <v>10600</v>
       </c>
       <c r="F7" t="n">
-        <v>10007.68</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>68270.86</v>
+        <v>8500</v>
       </c>
       <c r="I7" t="n">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>591.1900000000001</v>
+        <v>791.67</v>
       </c>
       <c r="K7" t="n">
-        <v>6.51</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>瑞e险</t>
+          <t>线上供应链-瑞e保</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>熠瑞合（上海）供应链管理有限公司</t>
+          <t>上海电气研砼建筑科技集团有限公司</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37.61</v>
+        <v>1607.56</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>660</v>
+        <v>5600</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -4727,16 +4739,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.3</v>
+        <v>1503.41</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>18.81</v>
+        <v>160.76</v>
       </c>
       <c r="K8" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4747,35 +4759,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>上海中振交通装备有限公司</t>
+          <t>无锡红豆居家服饰有限公司</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>10600</v>
+        <v>12000</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>8600</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>8500</v>
+        <v>9600</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>791.67</v>
+        <v>800</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="10">
@@ -4786,35 +4798,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>上海电气研砼建筑科技集团有限公司</t>
+          <t>江西联创光电科技股份有限公司</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1607.56</v>
+        <v>19959.88</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>5600</v>
+        <v>22000</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2953.93</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>1503.41</v>
+        <v>19959.88</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J10" t="n">
-        <v>160.76</v>
+        <v>907.27</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="11">
@@ -4825,35 +4837,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>无锡红豆居家服饰有限公司</t>
+          <t>远东智慧能源股份有限公司</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9600</v>
+        <v>24987.13</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>12000</v>
+        <v>45800</v>
       </c>
       <c r="F11" t="n">
-        <v>8600</v>
+        <v>3766.85</v>
       </c>
       <c r="G11" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>9600</v>
+        <v>24987.13</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>489.94</v>
       </c>
       <c r="K11" t="n">
-        <v>5.15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4864,265 +4876,152 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江西联创光电科技股份有限公司</t>
+          <t>银江技术股份有限公司</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19959.88</v>
+        <v>3000</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>22000</v>
+        <v>4500</v>
       </c>
       <c r="F12" t="n">
-        <v>2953.93</v>
+        <v>737.78</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>19959.88</v>
+        <v>3000</v>
       </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>907.27</v>
+        <v>500</v>
       </c>
       <c r="K12" t="n">
-        <v>5.15</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>线上供应链-瑞e保</t>
+          <t>线上第三方-先用后付</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>远东智慧能源股份有限公司</t>
+          <t>上海锦江旅游控股有限公司</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24987.13</v>
+        <v>0.65</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>45800</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>3766.85</v>
+        <v>0.65</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>24987.13</v>
+        <v>0.65</v>
       </c>
       <c r="I13" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>489.94</v>
+        <v>0.65</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>线上供应链-瑞e保</t>
+          <t>线上第三方-先用后付</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>银江技术股份有限公司</t>
+          <t>浙江阿里商旅旅行社有限公司</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3000</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>4500</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
-        <v>737.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3000</v>
+        <v>0.01</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>500</v>
+        <v>0.01</v>
       </c>
       <c r="K14" t="n">
-        <v>6.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>线上第三方-先用后付</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>上海锦江旅游控股有限公司</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.65</v>
+        <v>227729.11</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>480063</v>
       </c>
       <c r="F15" t="n">
-        <v>0.65</v>
+        <v>29392.56</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="H15" t="n">
-        <v>0.65</v>
+        <v>141320.63</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>295</v>
       </c>
       <c r="J15" t="n">
-        <v>0.65</v>
+        <v>5001.79</v>
       </c>
       <c r="K15" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>线上第三方-先用后付</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>浙江阿里商旅旅行社有限公司</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>33</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K16" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>线下卖方产品</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>32968</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>36000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3244</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>32968</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1189343.95</v>
-      </c>
-      <c r="D18" t="n">
-        <v>485</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1978836</v>
-      </c>
-      <c r="F18" t="n">
-        <v>49736.56</v>
-      </c>
-      <c r="G18" t="n">
-        <v>137</v>
-      </c>
-      <c r="H18" t="n">
-        <v>143631.66</v>
-      </c>
-      <c r="I18" t="n">
-        <v>298</v>
-      </c>
-      <c r="J18" t="n">
-        <v>48906.46</v>
-      </c>
-      <c r="K18" t="n">
-        <v>123.16</v>
+        <v>110.16</v>
       </c>
     </row>
   </sheetData>
